--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請画面) .xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\04_外部仕様書\画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082BBD4-4091-46B1-9FF7-4517D324EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="〇〇画面" sheetId="2" r:id="rId2"/>
+    <sheet name="申請画面" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$M$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">申請画面!$A$1:$K$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -112,6 +111,158 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>出勤時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤時間</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩終了時間</t>
+    <rPh sb="0" eb="4">
+      <t>キュウケイシュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存機能</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請機能</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのあと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請画面に戻り、申請を継続できる</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請画面に戻る。申請が成功したことを示すためにフラッシュメッセージをつける</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -119,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +438,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,15 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,83 +487,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="図 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1046"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>604974</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17961</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>453119</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>37011</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -427,15 +513,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1720760" y="1868532"/>
-          <a:ext cx="4869180" cy="2794908"/>
+          <a:off x="638175" y="838200"/>
+          <a:ext cx="7467600" cy="5353050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -469,14 +553,79 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>990332</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>208638</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="図 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="1905"/>
+              <a:ext cx="6115050" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>221797</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178798</xdr:rowOff>
+      <xdr:colOff>31028</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190469</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1415772" cy="435697"/>
+    <xdr:ext cx="2665345" cy="435697"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -490,8 +639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698297" y="2029369"/>
-          <a:ext cx="1415772" cy="435697"/>
+          <a:off x="2472648" y="1867406"/>
+          <a:ext cx="2665345" cy="435697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -519,125 +668,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>20XX</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>〇〇ログイン</a:t>
+            <a:t>年</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>589997</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115116</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="318164" cy="280205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824092A5-4862-429E-8645-C38BA0A48219}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3066497" y="2659652"/>
-          <a:ext cx="318164" cy="280205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>ID</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>XX</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>636044</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42726</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="954107" cy="349776"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E705FA-7CD7-4D78-85E8-1454941B090F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2432187" y="3049905"/>
-          <a:ext cx="954107" cy="349776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>パスワード</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>月の勤怠申請画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -646,23 +690,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>267516</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138061</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19867</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>452573</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>147586</xdr:rowOff>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C493AE2-4C07-4A8B-BE08-8A4F2948C94A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,14 +714,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3424373" y="2682597"/>
-          <a:ext cx="1545771" cy="240846"/>
+          <a:off x="2477317" y="2850782"/>
+          <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -706,7 +752,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -715,22 +773,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>261801</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99504</xdr:rowOff>
+      <xdr:colOff>29392</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>456383</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110934</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B1A7F9-41BF-4BD6-AC3D-216B084B5553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -738,14 +796,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3418658" y="3106683"/>
-          <a:ext cx="1555296" cy="242751"/>
+          <a:off x="3163117" y="2850782"/>
+          <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -774,7 +834,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -782,23 +854,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>137976</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57967</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>231407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>194038</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC44A1C-902E-47F3-9BA1-BDE5D49025AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,12 +878,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1932215" y="1988547"/>
-          <a:ext cx="680357" cy="518705"/>
+          <a:off x="3867967" y="2841257"/>
+          <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -835,9 +917,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ロゴ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -845,20 +936,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>410392</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>40906</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48442</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>521155</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107496</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -869,8 +960,90 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4247606" y="3510727"/>
-          <a:ext cx="791120" cy="297912"/>
+          <a:off x="4534717" y="2860307"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638992</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>202832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743892" y="5670182"/>
+          <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,7 +1086,161 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29392</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191942" y="2850782"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617259</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1180565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5741977" y="2891029"/>
+          <a:ext cx="563306" cy="221365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>編集</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -921,6 +1248,36 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="D12:I23" totalsRowShown="0">
+  <autoFilter ref="D12:I23"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="日付"/>
+    <tableColumn id="2" name="出勤時間"/>
+    <tableColumn id="3" name="退勤時間"/>
+    <tableColumn id="4" name="休憩開始時間"/>
+    <tableColumn id="5" name="休憩終了時間"/>
+    <tableColumn id="6" name="列6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="D28:I33" totalsRowShown="0">
+  <autoFilter ref="D28:I33"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="機能"/>
+    <tableColumn id="2" name="場所"/>
+    <tableColumn id="3" name="そのあと"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+    <tableColumn id="6" name="列6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,21 +1576,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1607,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1261,294 +1618,264 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1556,6 +1883,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,24 +1921,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請画面) .xlsx
@@ -438,6 +438,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,15 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,7 +581,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1053"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -620,12 +620,12 @@
   </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31028</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190469</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379831</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16068</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2665345" cy="435697"/>
+    <xdr:ext cx="1415772" cy="435697"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -639,8 +639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2472648" y="1867406"/>
-          <a:ext cx="2665345" cy="435697"/>
+          <a:off x="3492225" y="968568"/>
+          <a:ext cx="1415772" cy="435697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,20 +668,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>20XX</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>年</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-            <a:t>XX</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>月の勤怠申請画面</a:t>
+            <a:t>勤怠申請画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1247,6 +1235,317 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>599307</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>195298</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3877985" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181243AF-7801-476F-9A7D-4755F254AAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028603" y="1389277"/>
+          <a:ext cx="3877985" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>申請したい年・月を入力してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536498</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>236907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>364232</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>224576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2978118" y="1913844"/>
+          <a:ext cx="498508" cy="229147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>583708</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3868369" y="1905258"/>
+          <a:ext cx="498508" cy="229147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425417</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>233152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>253151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879361" y="1910089"/>
+          <a:ext cx="498508" cy="229147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1627,255 +1926,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1883,36 +2212,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(申請画面) .xlsx
@@ -13,10 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="申請画面" sheetId="2" r:id="rId2"/>
+    <sheet name="AttendanceCreate.html" sheetId="2" r:id="rId2"/>
+    <sheet name="AttendanceEdit.html" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">申請画面!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AttendanceCreate.html!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">AttendanceEdit.html!$A$1:$K$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -208,13 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保存</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>申請</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
@@ -263,6 +259,70 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集機能</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請登録画面に戻る</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時保存</t>
+    <rPh sb="0" eb="4">
+      <t>イチジホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -438,6 +498,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -446,15 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,9 +624,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>990332</xdr:colOff>
+          <xdr:colOff>917121</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>208638</xdr:rowOff>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -581,7 +641,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1058"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1082"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -620,12 +680,12 @@
   </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>379831</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>16068</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>570330</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124926</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1415772" cy="435697"/>
+    <xdr:ext cx="3174972" cy="521425"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
@@ -639,8 +699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3492225" y="968568"/>
-          <a:ext cx="1415772" cy="435697"/>
+          <a:off x="2366473" y="1580890"/>
+          <a:ext cx="3174972" cy="521425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,7 +728,55 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YYYY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>勤怠申請画面</a:t>
           </a:r>
         </a:p>
@@ -1006,16 +1114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638992</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>202832</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>665823</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1164331</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83177</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1030,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743892" y="5670182"/>
-          <a:ext cx="504008" cy="225794"/>
+          <a:off x="5790541" y="5877586"/>
+          <a:ext cx="498508" cy="229147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1083,20 +1191,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>29392</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2807</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348803</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>174402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -1107,8 +1215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5191942" y="2850782"/>
-          <a:ext cx="504008" cy="225794"/>
+          <a:off x="1891585" y="5768662"/>
+          <a:ext cx="898838" cy="187817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,7 +1259,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>保存</a:t>
+            <a:t>一時保存</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1160,20 +1268,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>617259</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6698</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>460956</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1180565</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228063</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643944</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13416</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -1184,8 +1292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5741977" y="2891029"/>
-          <a:ext cx="563306" cy="221365"/>
+          <a:off x="3573350" y="5719830"/>
+          <a:ext cx="853763" cy="317142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,24 +1336,160 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>編集</a:t>
+            <a:t>編集する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1A7A66-3DAC-465A-ADF5-8C43B901AB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="838200"/>
+          <a:ext cx="6496050" cy="5353050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>990332</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>208638</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="図 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s2072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="1905"/>
+              <a:ext cx="6152882" cy="673458"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>599307</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17612</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>195298</xdr:rowOff>
+      <xdr:rowOff>230716</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3877985" cy="435697"/>
+    <xdr:ext cx="2782044" cy="435697"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181243AF-7801-476F-9A7D-4755F254AAC3}"/>
@@ -1256,8 +1500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028603" y="1389277"/>
-          <a:ext cx="3877985" cy="435697"/>
+          <a:off x="2459232" y="1424695"/>
+          <a:ext cx="2782044" cy="435697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,8 +1529,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>YYYY</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>申請したい年・月を入力してください。</a:t>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>MM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>月の勤怠編集画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1296,19 +1552,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>536498</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>236907</xdr:rowOff>
+      <xdr:colOff>19867</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>364232</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>224576</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
@@ -1319,184 +1575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2978118" y="1913844"/>
-          <a:ext cx="498508" cy="229147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>228321</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>583708</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>215990</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3868369" y="1905258"/>
-          <a:ext cx="498508" cy="229147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>425417</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>233152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>253151</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>220821</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4879361" y="1910089"/>
-          <a:ext cx="498508" cy="229147"/>
+          <a:off x="2477317" y="2850782"/>
+          <a:ext cx="504008" cy="225794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1534,12 +1614,340 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29392</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3163117" y="2850782"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57967</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>231407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867967" y="2841257"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48442</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4534717" y="2860307"/>
+          <a:ext cx="504008" cy="225794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00:00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617113</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1059825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B474D1-C9FB-4150-8A9E-E718B40868AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5071057" y="5688168"/>
+          <a:ext cx="1113486" cy="496373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>確定</a:t>
+            <a:t>変更する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1566,6 +1974,36 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="D28:I33" totalsRowShown="0">
+  <autoFilter ref="D28:I33"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="機能"/>
+    <tableColumn id="2" name="場所"/>
+    <tableColumn id="3" name="そのあと"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+    <tableColumn id="6" name="列6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル14" displayName="テーブル14" ref="D12:I23" totalsRowShown="0">
+  <autoFilter ref="D12:I23"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="日付"/>
+    <tableColumn id="2" name="出勤時間"/>
+    <tableColumn id="3" name="退勤時間"/>
+    <tableColumn id="4" name="休憩開始時間"/>
+    <tableColumn id="5" name="休憩終了時間"/>
+    <tableColumn id="6" name="列6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル25" displayName="テーブル25" ref="D28:I33" totalsRowShown="0">
   <autoFilter ref="D28:I33"/>
   <tableColumns count="6">
     <tableColumn id="1" name="機能"/>
@@ -1926,285 +2364,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -2212,6 +2620,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2221,10 +2659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I30"/>
+  <dimension ref="D1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2288,7 +2726,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -2305,10 +2743,10 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.4">
@@ -2316,10 +2754,21 @@
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2333,4 +2782,127 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:I29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="71" zoomScaleNormal="100" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>